--- a/notebooks/reconstructed.xlsx
+++ b/notebooks/reconstructed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\script\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A88CD5F-F4B2-43A7-AC8E-0B9A8F35F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75233358-4DEA-46CC-9123-D48ED4559278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,21 +348,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <f>A1*2</f>
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <f>A2*2</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/reconstructed.xlsx
+++ b/notebooks/reconstructed.xlsx
@@ -367,11 +367,11 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <f>A2*2</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
